--- a/public/excel/taxa.homicidio.UF.ANO.HOMEM.xlsx
+++ b/public/excel/taxa.homicidio.UF.ANO.HOMEM.xlsx
@@ -1,169 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>TO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,11 +197,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -183,1758 +209,1807 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8010204081633"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>51.04</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="0" t="n">
         <v>56.24</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0" t="n">
         <v>24.76</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>33.81</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0" t="n">
         <v>38.35</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="0" t="n">
         <v>47.33</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="0" t="n">
         <v>44.28</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>34.57</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>33.49</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="0" t="n">
         <v>43.36</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0" t="n">
         <v>33.37</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="0" t="n">
         <v>36.78</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0" t="n">
         <v>41.37</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="0" t="n">
         <v>41.27</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="0" t="n">
         <v>41.36</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="0" t="n">
         <v>51.97</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="0" t="n">
         <v>54.82</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="0" t="n">
         <v>54.66</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>54.24</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>46.79</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>42.71</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>39.46</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>49.89</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>57.19</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="0" t="n">
         <v>66.09</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="0" t="n">
         <v>69.28</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>67.33</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>77.39</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="0" t="n">
         <v>103.99</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>115.89</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0" t="n">
         <v>118.81</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>116.25</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="0" t="n">
         <v>130.51</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="0" t="n">
         <v>139.16</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="0" t="n">
         <v>125.93</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="0" t="n">
         <v>127.69</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="0" t="n">
         <v>123.23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>37.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>35.04</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>38.32</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>39.12</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>39.1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>30.99</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="0" t="n">
         <v>33.85</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="0" t="n">
         <v>35.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>32.02</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>35.34</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="0" t="n">
         <v>40.63</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>40.9</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="0" t="n">
         <v>46.92</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0" t="n">
         <v>49.37</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="0" t="n">
         <v>57.84</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="0" t="n">
         <v>68.97</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="0" t="n">
         <v>68.4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="0" t="n">
         <v>55.97</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="0" t="n">
         <v>59.38</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>73.28</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>62.27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>69.39</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0" t="n">
         <v>79.5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>62.64</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>67.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="0" t="n">
         <v>64.02</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="0" t="n">
         <v>64.44</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>56.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>61.65</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="0" t="n">
         <v>61.8</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>50.18</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="0" t="n">
         <v>64.36</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>57.27</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="0" t="n">
         <v>74.6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="0" t="n">
         <v>57.8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="0" t="n">
         <v>76.06</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="0" t="n">
         <v>64.14</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="0" t="n">
         <v>69.68</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>28.8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>28.81</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="0" t="n">
         <v>25.73</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="0" t="n">
         <v>15.9</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>30.92</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>42.51</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="0" t="n">
         <v>44.41</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="0" t="n">
         <v>48.04</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>49.48</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="0" t="n">
         <v>47.97</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="0" t="n">
         <v>54.86</v>
       </c>
-      <c r="M6" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>79.92</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0" t="n">
         <v>86.8</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="0" t="n">
         <v>87.19</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="0" t="n">
         <v>85.13</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="0" t="n">
         <v>92.41</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="0" t="n">
         <v>79.94</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="0" t="n">
         <v>85.41</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>30.96</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>30.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="0" t="n">
         <v>28.4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="0" t="n">
         <v>28.86</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="0" t="n">
         <v>31.58</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>34.05</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="0" t="n">
         <v>37.27</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="0" t="n">
         <v>41.82</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>41.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="0" t="n">
         <v>41.09</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="0" t="n">
         <v>44.83</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0" t="n">
         <v>51.18</v>
       </c>
-      <c r="N7" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>55.94</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="0" t="n">
         <v>71.04</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="0" t="n">
         <v>74.65</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="0" t="n">
         <v>96.36</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="0" t="n">
         <v>104.04</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="0" t="n">
         <v>103.74</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>65.91</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>65.64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="0" t="n">
         <v>67.31</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="0" t="n">
         <v>65.83</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="0" t="n">
         <v>68.27</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>65.57</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="0" t="n">
         <v>58.44</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="0" t="n">
         <v>65.19</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>60.92</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>56.44</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="0" t="n">
         <v>54.45</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>57.7</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="0" t="n">
         <v>62.54</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0" t="n">
         <v>65.62</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="0" t="n">
         <v>59.24</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="0" t="n">
         <v>66.75</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="0" t="n">
         <v>71.7</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="0" t="n">
         <v>58.93</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="0" t="n">
         <v>59.85</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>54.46</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>73.16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="0" t="n">
         <v>87.37</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="0" t="n">
         <v>81.79</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="0" t="n">
         <v>73.69</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>75.29</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="0" t="n">
         <v>88.12</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="0" t="n">
         <v>86.69</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="0" t="n">
         <v>84.45</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="0" t="n">
         <v>83.04</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="0" t="n">
         <v>88.69</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0" t="n">
         <v>94.18</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="0" t="n">
         <v>108.22</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0" t="n">
         <v>106.47</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="0" t="n">
         <v>96.93</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="0" t="n">
         <v>92.04</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="0" t="n">
         <v>93.74</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="0" t="n">
         <v>82.21</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="0" t="n">
         <v>83.84</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>48.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>49.57</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="0" t="n">
         <v>48.65</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="0" t="n">
         <v>48.47</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="0" t="n">
         <v>43.21</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>44.26</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="0" t="n">
         <v>49.48</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="0" t="n">
         <v>47.56</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="0" t="n">
         <v>54.16</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>51.07</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="0" t="n">
         <v>51.38</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>51.95</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="0" t="n">
         <v>61.03</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0" t="n">
         <v>62.94</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="0" t="n">
         <v>63.56</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="0" t="n">
         <v>69.54</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="0" t="n">
         <v>86.04</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="0" t="n">
         <v>86.83</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="0" t="n">
         <v>81.84</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>12.14</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>14.18</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="0" t="n">
         <v>21.87</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="0" t="n">
         <v>12.93</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="0" t="n">
         <v>16.89</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>19.64</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="0" t="n">
         <v>21.4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="0" t="n">
         <v>23.68</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="0" t="n">
         <v>23.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>30.66</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="0" t="n">
         <v>30.98</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>36.24</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="0" t="n">
         <v>40.58</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0" t="n">
         <v>43.43</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="0" t="n">
         <v>45.07</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="0" t="n">
         <v>47.17</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="0" t="n">
         <v>52.39</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="0" t="n">
         <v>63.38</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="0" t="n">
         <v>71.19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>18.74</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>21.01</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="0" t="n">
         <v>36.9</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="0" t="n">
         <v>26.05</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="0" t="n">
         <v>28.79</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>31.91</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="0" t="n">
         <v>35.43</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="0" t="n">
         <v>44.17</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="0" t="n">
         <v>48.51</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="0" t="n">
         <v>46.29</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="0" t="n">
         <v>47.13</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0" t="n">
         <v>45.07</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="0" t="n">
         <v>43.67</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0" t="n">
         <v>44.21</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="0" t="n">
         <v>43.3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="0" t="n">
         <v>48.79</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="0" t="n">
         <v>50.4</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="0" t="n">
         <v>51.36</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="0" t="n">
         <v>52.04</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>69.67</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>76.99</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="0" t="n">
         <v>65.23</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="0" t="n">
         <v>59.03</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="0" t="n">
         <v>63.08</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>57.83</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="0" t="n">
         <v>59.65</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="0" t="n">
         <v>63.28</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>57.45</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>53.05</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="0" t="n">
         <v>59.59</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>59.88</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="0" t="n">
         <v>58.64</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0" t="n">
         <v>60.95</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="0" t="n">
         <v>51.81</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="0" t="n">
         <v>52.75</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="0" t="n">
         <v>51.93</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="0" t="n">
         <v>46.51</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="0" t="n">
         <v>50.14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>49.47</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>58.49</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="0" t="n">
         <v>63.2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="0" t="n">
         <v>62.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="0" t="n">
         <v>71.4</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>67.08</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="0" t="n">
         <v>64.59</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="0" t="n">
         <v>63.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="0" t="n">
         <v>59.32</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="0" t="n">
         <v>65.05</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="0" t="n">
         <v>60.49</v>
       </c>
-      <c r="M14" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>59.91</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0" t="n">
         <v>63.14</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="0" t="n">
         <v>62.53</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="0" t="n">
         <v>61.7</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="0" t="n">
         <v>65.06</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="0" t="n">
         <v>71.31</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="0" t="n">
         <v>79.45</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>19.02</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>21.23</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="0" t="n">
         <v>25.14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="0" t="n">
         <v>23.33</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="0" t="n">
         <v>24.52</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>27.71</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="0" t="n">
         <v>34.42</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="0" t="n">
         <v>39.04</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="0" t="n">
         <v>41.52</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="0" t="n">
         <v>50.96</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="0" t="n">
         <v>55.03</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0" t="n">
         <v>57.19</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="0" t="n">
         <v>73.46</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="0" t="n">
         <v>76.08</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="0" t="n">
         <v>87.29</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="0" t="n">
         <v>74.89</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="0" t="n">
         <v>77.29</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="0" t="n">
         <v>80.43</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="0" t="n">
         <v>79.2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>33.7</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="0" t="n">
         <v>28.73</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="0" t="n">
         <v>26.14</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="0" t="n">
         <v>24.13</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="0" t="n">
         <v>30.38</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="0" t="n">
         <v>28.15</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="0" t="n">
         <v>34.25</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="0" t="n">
         <v>36.54</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="0" t="n">
         <v>37.75</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="0" t="n">
         <v>41.44</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="0" t="n">
         <v>44.83</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="0" t="n">
         <v>46.41</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="0" t="n">
         <v>52.85</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="0" t="n">
         <v>65.77</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="0" t="n">
         <v>76.85</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="0" t="n">
         <v>82.73</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="0" t="n">
         <v>77.5</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="0" t="n">
         <v>78.21</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="0" t="n">
         <v>77.41</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>82.75</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="0" t="n">
         <v>102.74</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="0" t="n">
         <v>119.94</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="0" t="n">
         <v>115.19</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="0" t="n">
         <v>111.01</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="0" t="n">
         <v>120.9</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="0" t="n">
         <v>111.75</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="0" t="n">
         <v>113.61</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="0" t="n">
         <v>105.74</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="0" t="n">
         <v>108.52</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="0" t="n">
         <v>110.55</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="0" t="n">
         <v>112.79</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="0" t="n">
         <v>108.54</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="0" t="n">
         <v>96.56</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="0" t="n">
         <v>87.83</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="0" t="n">
         <v>84.9</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="0" t="n">
         <v>81.06</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="0" t="n">
         <v>76.03</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="0" t="n">
         <v>78.23</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>7.79</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="0" t="n">
         <v>9.76</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="0" t="n">
         <v>11.43</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="0" t="n">
         <v>12.84</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="0" t="n">
         <v>18.52</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="0" t="n">
         <v>19.32</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="0" t="n">
         <v>21.05</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="0" t="n">
         <v>22.68</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="0" t="n">
         <v>22.28</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="0" t="n">
         <v>23.41</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="0" t="n">
         <v>29.09</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="0" t="n">
         <v>26.18</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="0" t="n">
         <v>26.27</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="0" t="n">
         <v>26.75</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="0" t="n">
         <v>26.96</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="0" t="n">
         <v>28.59</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="0" t="n">
         <v>34.86</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="0" t="n">
         <v>38.96</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="0" t="n">
         <v>45.47</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>35.02</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="0" t="n">
         <v>36.1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="0" t="n">
         <v>36.19</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="0" t="n">
         <v>36.95</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="0" t="n">
         <v>40.74</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="0" t="n">
         <v>43.44</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="0" t="n">
         <v>47.29</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="0" t="n">
         <v>50.73</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="0" t="n">
         <v>55.45</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="0" t="n">
         <v>57.04</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="0" t="n">
         <v>59.25</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="0" t="n">
         <v>60.27</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="0" t="n">
         <v>64.43</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="0" t="n">
         <v>68.79</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="0" t="n">
         <v>68.6</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="0" t="n">
         <v>65.41</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="0" t="n">
         <v>66.24</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="0" t="n">
         <v>54.7</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="0" t="n">
         <v>55.06</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>126.29</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="0" t="n">
         <v>125.02</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="0" t="n">
         <v>125.66</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="0" t="n">
         <v>124.43</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="0" t="n">
         <v>112.04</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="0" t="n">
         <v>108.08</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="0" t="n">
         <v>113.68</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="0" t="n">
         <v>111.27</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="0" t="n">
         <v>103.69</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="0" t="n">
         <v>103.19</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="0" t="n">
         <v>95.6</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="0" t="n">
         <v>98.76</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="0" t="n">
         <v>87.26</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="0" t="n">
         <v>86.17</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="0" t="n">
         <v>68.24</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="0" t="n">
         <v>61.98</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="0" t="n">
         <v>60.82</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="0" t="n">
         <v>62.43</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="0" t="n">
         <v>57.96</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>36.73</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="0" t="n">
         <v>39.31</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="0" t="n">
         <v>31.84</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="0" t="n">
         <v>35.88</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="0" t="n">
         <v>31.99</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="0" t="n">
         <v>35.25</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="0" t="n">
         <v>35.57</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="0" t="n">
         <v>40.65</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="0" t="n">
         <v>36.59</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="0" t="n">
         <v>38.32</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="0" t="n">
         <v>50.75</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="0" t="n">
         <v>57.94</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="0" t="n">
         <v>65.12</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="0" t="n">
         <v>53.33</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="0" t="n">
         <v>68.56</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="0" t="n">
         <v>74.96</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="0" t="n">
         <v>86.69</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="0" t="n">
         <v>94.54</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>50.66</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="0" t="n">
         <v>52.05</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="0" t="n">
         <v>68.66</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="0" t="n">
         <v>57.83</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="0" t="n">
         <v>59.17</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="0" t="n">
         <v>73.47</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="0" t="n">
         <v>87.87</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="0" t="n">
         <v>75.95</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="0" t="n">
         <v>71.68</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="0" t="n">
         <v>67.19</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="0" t="n">
         <v>67.72</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="0" t="n">
         <v>53.29</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="0" t="n">
         <v>59.26</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="0" t="n">
         <v>68.22</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="0" t="n">
         <v>65.9</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="0" t="n">
         <v>51.48</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="0" t="n">
         <v>59.44</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="0" t="n">
         <v>47.82</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="0" t="n">
         <v>57.83</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>70.66</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="0" t="n">
         <v>60.99</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="0" t="n">
         <v>87.07</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="0" t="n">
         <v>90.85</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="0" t="n">
         <v>63.24</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="0" t="n">
         <v>60.82</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="0" t="n">
         <v>69.84</v>
       </c>
-      <c r="I23" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I23" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="J23" s="0" t="n">
         <v>66.94</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="0" t="n">
         <v>51.92</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="0" t="n">
         <v>48.92</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="0" t="n">
         <v>45.98</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="0" t="n">
         <v>47.92</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="0" t="n">
         <v>48.1</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="0" t="n">
         <v>58.11</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="0" t="n">
         <v>40.64</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="0" t="n">
         <v>55.76</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="0" t="n">
         <v>74.24</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="0" t="n">
         <v>63.15</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>36.68</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="0" t="n">
         <v>38.2</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="0" t="n">
         <v>34.54</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="0" t="n">
         <v>34.3</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="0" t="n">
         <v>37.74</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="0" t="n">
         <v>39.33</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="0" t="n">
         <v>40.21</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="0" t="n">
         <v>40.58</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="0" t="n">
         <v>41.17</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="0" t="n">
         <v>40.23</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="0" t="n">
         <v>39.65</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="0" t="n">
         <v>42.29</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="0" t="n">
         <v>45.44</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="0" t="n">
         <v>43.56</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="0" t="n">
         <v>41.59</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="0" t="n">
         <v>41.13</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="0" t="n">
         <v>45.53</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24" s="0" t="n">
         <v>42.08</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" s="0" t="n">
         <v>49.01</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>15.38</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="0" t="n">
         <v>16.01</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="0" t="n">
         <v>17.14</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="0" t="n">
         <v>15.26</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="0" t="n">
         <v>15.47</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="0" t="n">
         <v>16.32</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="0" t="n">
         <v>21.13</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="0" t="n">
         <v>25.38</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="0" t="n">
         <v>23.41</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="0" t="n">
         <v>22.96</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="0" t="n">
         <v>21.94</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="0" t="n">
         <v>21.32</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="0" t="n">
         <v>26.4</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="0" t="n">
         <v>27.11</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25" s="0" t="n">
         <v>25.06</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="0" t="n">
         <v>25.3</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" s="0" t="n">
         <v>23.97</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25" s="0" t="n">
         <v>22.33</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" s="0" t="n">
         <v>24.52</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <v>65.03</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="0" t="n">
         <v>62.62</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="0" t="n">
         <v>68.62</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="0" t="n">
         <v>55.46</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="0" t="n">
         <v>54.52</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="0" t="n">
         <v>63.07</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="0" t="n">
         <v>63.97</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="0" t="n">
         <v>54.62</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="0" t="n">
         <v>51.33</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="0" t="n">
         <v>56.38</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="0" t="n">
         <v>64.22</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="0" t="n">
         <v>57.18</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="0" t="n">
         <v>58.71</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="0" t="n">
         <v>70.06</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="0" t="n">
         <v>69.55</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="0" t="n">
         <v>70.31</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" s="0" t="n">
         <v>84.14</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26" s="0" t="n">
         <v>87.78</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="0" t="n">
         <v>98.61</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="n">
         <v>67.47</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="0" t="n">
         <v>67.41</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="0" t="n">
         <v>73.08</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="0" t="n">
         <v>70.1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="0" t="n">
         <v>77.03</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="0" t="n">
         <v>80.2</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="0" t="n">
         <v>75.59</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="0" t="n">
         <v>69.82</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="0" t="n">
         <v>61.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="0" t="n">
         <v>51.48</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="0" t="n">
         <v>43.74</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="0" t="n">
         <v>35.79</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="0" t="n">
         <v>35.49</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="0" t="n">
         <v>36.38</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="0" t="n">
         <v>34.91</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="0" t="n">
         <v>33.89</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" s="0" t="n">
         <v>36.12</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" s="0" t="n">
         <v>31.92</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" s="0" t="n">
         <v>32.69</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="0" t="n">
         <v>24.58</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="0" t="n">
         <v>20.24</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="0" t="n">
         <v>21.33</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="0" t="n">
         <v>26.51</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="0" t="n">
         <v>29.57</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="0" t="n">
         <v>33.67</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="0" t="n">
         <v>28.36</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="0" t="n">
         <v>30.69</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="0" t="n">
         <v>29.82</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="0" t="n">
         <v>27.14</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="0" t="n">
         <v>32.48</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="0" t="n">
         <v>29.64</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="0" t="n">
         <v>36.17</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="0" t="n">
         <v>43.67</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28" s="0" t="n">
         <v>44.56</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="0" t="n">
         <v>43.73</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" s="0" t="n">
         <v>47.67</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28" s="0" t="n">
         <v>42.43</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" s="0" t="n">
         <v>50.63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>